--- a/File Research/CommonObjDat UW2.xlsx
+++ b/File Research/CommonObjDat UW2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4BDBEB-FEEC-4993-A29A-331813451853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D099F0A-9FFB-43C3-8CA0-B4CDB5764E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{7ED1FA11-2114-4775-965F-EC4009C3E5C9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{7ED1FA11-2114-4775-965F-EC4009C3E5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1533,7 +1533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1566,6 +1566,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1580,15 +1583,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1608,9 +1602,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1648,7 +1642,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1754,7 +1748,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1896,7 +1890,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1904,13 +1898,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED46B61-4517-4515-9354-B9B0C7E0A8BB}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AP466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="K211" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AP2" sqref="AP2"/>
+      <selection pane="bottomRight" activeCell="O217" sqref="O217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1952,7 +1947,7 @@
     <col min="38" max="38" width="22" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="16.59765625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="12.265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="23.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.1328125" style="10" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="12.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1963,58 +1958,58 @@
       <c r="F1" s="7">
         <v>0</v>
       </c>
-      <c r="G1" s="14">
-        <v>1</v>
-      </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="G1" s="15">
+        <v>1</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="12">
+      <c r="M1" s="13">
         <v>3</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="14">
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="15">
         <v>4</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="12">
+      <c r="T1" s="16"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="13">
         <v>6</v>
       </c>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12">
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13">
         <v>7</v>
       </c>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="14">
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="15">
         <v>8</v>
       </c>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="12">
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="13">
         <v>9</v>
       </c>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12">
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13">
         <v>10</v>
       </c>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="1:42" s="3" customFormat="1" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -2032,10 +2027,10 @@
       <c r="F2" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="14"/>
       <c r="I2" s="5" t="s">
         <v>432</v>
       </c>
@@ -2066,10 +2061,10 @@
       <c r="R2" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="T2" s="13"/>
+      <c r="T2" s="14"/>
       <c r="U2" s="5" t="s">
         <v>431</v>
       </c>
@@ -2128,10 +2123,10 @@
       <c r="AN2" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="AO2" s="18" t="s">
+      <c r="AO2" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="AP2" s="19" t="s">
+      <c r="AP2" s="12" t="s">
         <v>447</v>
       </c>
     </row>
@@ -2282,7 +2277,7 @@
       <c r="AN3" s="10">
         <v>11</v>
       </c>
-      <c r="AO3" s="17">
+      <c r="AO3" s="10">
         <f>_xlfn.BITAND(_xlfn.BITRSHIFT(HEX2DEC(AN3),4),1)</f>
         <v>1</v>
       </c>
@@ -2439,7 +2434,7 @@
       <c r="AN4" s="10">
         <v>11</v>
       </c>
-      <c r="AO4" s="17">
+      <c r="AO4" s="10">
         <f t="shared" ref="AO4:AO67" si="26">_xlfn.BITAND(_xlfn.BITRSHIFT(HEX2DEC(AN4),4),1)</f>
         <v>1</v>
       </c>
@@ -2596,7 +2591,7 @@
       <c r="AN5" s="10">
         <v>11</v>
       </c>
-      <c r="AO5" s="17">
+      <c r="AO5" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -2753,7 +2748,7 @@
       <c r="AN6" s="10">
         <v>11</v>
       </c>
-      <c r="AO6" s="17">
+      <c r="AO6" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -2910,7 +2905,7 @@
       <c r="AN7" s="10">
         <v>11</v>
       </c>
-      <c r="AO7" s="17">
+      <c r="AO7" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -3067,7 +3062,7 @@
       <c r="AN8" s="10">
         <v>11</v>
       </c>
-      <c r="AO8" s="17">
+      <c r="AO8" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -3224,7 +3219,7 @@
       <c r="AN9" s="10">
         <v>11</v>
       </c>
-      <c r="AO9" s="17">
+      <c r="AO9" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -3381,7 +3376,7 @@
       <c r="AN10" s="10">
         <v>11</v>
       </c>
-      <c r="AO10" s="17">
+      <c r="AO10" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -3538,7 +3533,7 @@
       <c r="AN11" s="10">
         <v>11</v>
       </c>
-      <c r="AO11" s="17">
+      <c r="AO11" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -3695,7 +3690,7 @@
       <c r="AN12" s="10">
         <v>11</v>
       </c>
-      <c r="AO12" s="17">
+      <c r="AO12" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -3852,7 +3847,7 @@
       <c r="AN13" s="10">
         <v>11</v>
       </c>
-      <c r="AO13" s="17">
+      <c r="AO13" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -4009,7 +4004,7 @@
       <c r="AN14" s="10">
         <v>11</v>
       </c>
-      <c r="AO14" s="17">
+      <c r="AO14" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -4166,7 +4161,7 @@
       <c r="AN15" s="10">
         <v>11</v>
       </c>
-      <c r="AO15" s="17">
+      <c r="AO15" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -4323,7 +4318,7 @@
       <c r="AN16" s="10">
         <v>11</v>
       </c>
-      <c r="AO16" s="17">
+      <c r="AO16" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -4480,7 +4475,7 @@
       <c r="AN17" s="10">
         <v>11</v>
       </c>
-      <c r="AO17" s="17">
+      <c r="AO17" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -4637,7 +4632,7 @@
       <c r="AN18" s="10">
         <v>11</v>
       </c>
-      <c r="AO18" s="17">
+      <c r="AO18" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -4794,7 +4789,7 @@
       <c r="AN19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO19" s="17">
+      <c r="AO19" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -4951,7 +4946,7 @@
       <c r="AN20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO20" s="17">
+      <c r="AO20" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -5108,7 +5103,7 @@
       <c r="AN21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO21" s="17">
+      <c r="AO21" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -5265,7 +5260,7 @@
       <c r="AN22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO22" s="17">
+      <c r="AO22" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -5274,7 +5269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>20</v>
       </c>
@@ -5422,7 +5417,7 @@
       <c r="AN23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO23" s="17">
+      <c r="AO23" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -5431,7 +5426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>21</v>
       </c>
@@ -5579,7 +5574,7 @@
       <c r="AN24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO24" s="17">
+      <c r="AO24" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -5588,7 +5583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>22</v>
       </c>
@@ -5736,7 +5731,7 @@
       <c r="AN25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO25" s="17">
+      <c r="AO25" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -5745,7 +5740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>23</v>
       </c>
@@ -5893,7 +5888,7 @@
       <c r="AN26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO26" s="17">
+      <c r="AO26" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -6050,7 +6045,7 @@
       <c r="AN27" s="10">
         <v>11</v>
       </c>
-      <c r="AO27" s="17">
+      <c r="AO27" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -6207,7 +6202,7 @@
       <c r="AN28" s="10">
         <v>11</v>
       </c>
-      <c r="AO28" s="17">
+      <c r="AO28" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -6364,7 +6359,7 @@
       <c r="AN29" s="10">
         <v>11</v>
       </c>
-      <c r="AO29" s="17">
+      <c r="AO29" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -6373,7 +6368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>27</v>
       </c>
@@ -6521,7 +6516,7 @@
       <c r="AN30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO30" s="17">
+      <c r="AO30" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -6678,7 +6673,7 @@
       <c r="AN31" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO31" s="17">
+      <c r="AO31" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -6687,7 +6682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>29</v>
       </c>
@@ -6835,7 +6830,7 @@
       <c r="AN32" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO32" s="17">
+      <c r="AO32" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -6844,7 +6839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>30</v>
       </c>
@@ -6992,7 +6987,7 @@
       <c r="AN33" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO33" s="17">
+      <c r="AO33" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -7149,7 +7144,7 @@
       <c r="AN34" s="10">
         <v>11</v>
       </c>
-      <c r="AO34" s="17">
+      <c r="AO34" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -7306,7 +7301,7 @@
       <c r="AN35" s="10">
         <v>11</v>
       </c>
-      <c r="AO35" s="17">
+      <c r="AO35" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -7463,7 +7458,7 @@
       <c r="AN36" s="10">
         <v>11</v>
       </c>
-      <c r="AO36" s="17">
+      <c r="AO36" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -7620,7 +7615,7 @@
       <c r="AN37" s="10">
         <v>11</v>
       </c>
-      <c r="AO37" s="17">
+      <c r="AO37" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -7777,7 +7772,7 @@
       <c r="AN38" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AO38" s="17">
+      <c r="AO38" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -7934,7 +7929,7 @@
       <c r="AN39" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AO39" s="17">
+      <c r="AO39" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -8091,7 +8086,7 @@
       <c r="AN40" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AO40" s="17">
+      <c r="AO40" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -8248,7 +8243,7 @@
       <c r="AN41" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AO41" s="17">
+      <c r="AO41" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -8405,7 +8400,7 @@
       <c r="AN42" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AO42" s="17">
+      <c r="AO42" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -8562,7 +8557,7 @@
       <c r="AN43" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AO43" s="17">
+      <c r="AO43" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -8719,7 +8714,7 @@
       <c r="AN44" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AO44" s="17">
+      <c r="AO44" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -8876,7 +8871,7 @@
       <c r="AN45" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AO45" s="17">
+      <c r="AO45" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -9033,7 +9028,7 @@
       <c r="AN46" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AO46" s="17">
+      <c r="AO46" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -9190,7 +9185,7 @@
       <c r="AN47" s="10">
         <v>11</v>
       </c>
-      <c r="AO47" s="17">
+      <c r="AO47" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -9347,7 +9342,7 @@
       <c r="AN48" s="10">
         <v>11</v>
       </c>
-      <c r="AO48" s="17">
+      <c r="AO48" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -9504,7 +9499,7 @@
       <c r="AN49" s="10">
         <v>11</v>
       </c>
-      <c r="AO49" s="17">
+      <c r="AO49" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -9661,7 +9656,7 @@
       <c r="AN50" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AO50" s="17">
+      <c r="AO50" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -9818,7 +9813,7 @@
       <c r="AN51" s="10">
         <v>17</v>
       </c>
-      <c r="AO51" s="17">
+      <c r="AO51" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -9975,7 +9970,7 @@
       <c r="AN52" s="10">
         <v>17</v>
       </c>
-      <c r="AO52" s="17">
+      <c r="AO52" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -10132,7 +10127,7 @@
       <c r="AN53" s="10">
         <v>17</v>
       </c>
-      <c r="AO53" s="17">
+      <c r="AO53" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -10289,7 +10284,7 @@
       <c r="AN54" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AO54" s="17">
+      <c r="AO54" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -10446,7 +10441,7 @@
       <c r="AN55" s="10">
         <v>17</v>
       </c>
-      <c r="AO55" s="17">
+      <c r="AO55" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -10603,7 +10598,7 @@
       <c r="AN56" s="10">
         <v>17</v>
       </c>
-      <c r="AO56" s="17">
+      <c r="AO56" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -10760,7 +10755,7 @@
       <c r="AN57" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO57" s="17">
+      <c r="AO57" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -10917,7 +10912,7 @@
       <c r="AN58" s="10">
         <v>17</v>
       </c>
-      <c r="AO58" s="17">
+      <c r="AO58" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -11074,7 +11069,7 @@
       <c r="AN59" s="10">
         <v>17</v>
       </c>
-      <c r="AO59" s="17">
+      <c r="AO59" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -11231,7 +11226,7 @@
       <c r="AN60" s="10">
         <v>17</v>
       </c>
-      <c r="AO60" s="17">
+      <c r="AO60" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -11388,7 +11383,7 @@
       <c r="AN61" s="10">
         <v>16</v>
       </c>
-      <c r="AO61" s="17">
+      <c r="AO61" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -11545,7 +11540,7 @@
       <c r="AN62" s="10">
         <v>11</v>
       </c>
-      <c r="AO62" s="17">
+      <c r="AO62" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -11702,7 +11697,7 @@
       <c r="AN63" s="10">
         <v>11</v>
       </c>
-      <c r="AO63" s="17">
+      <c r="AO63" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -11859,7 +11854,7 @@
       <c r="AN64" s="10">
         <v>11</v>
       </c>
-      <c r="AO64" s="17">
+      <c r="AO64" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -12016,7 +12011,7 @@
       <c r="AN65" s="10">
         <v>11</v>
       </c>
-      <c r="AO65" s="17">
+      <c r="AO65" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -12173,7 +12168,7 @@
       <c r="AN66" s="10">
         <v>11</v>
       </c>
-      <c r="AO66" s="17">
+      <c r="AO66" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -12182,7 +12177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>64</v>
       </c>
@@ -12330,7 +12325,7 @@
       <c r="AN67" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO67" s="17">
+      <c r="AO67" s="10">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
@@ -12339,7 +12334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>65</v>
       </c>
@@ -12487,7 +12482,7 @@
       <c r="AN68" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO68" s="17">
+      <c r="AO68" s="10">
         <f t="shared" ref="AO68:AO131" si="55">_xlfn.BITAND(_xlfn.BITRSHIFT(HEX2DEC(AN68),4),1)</f>
         <v>1</v>
       </c>
@@ -12496,7 +12491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>66</v>
       </c>
@@ -12644,7 +12639,7 @@
       <c r="AN69" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO69" s="17">
+      <c r="AO69" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -12653,7 +12648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>67</v>
       </c>
@@ -12801,7 +12796,7 @@
       <c r="AN70" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO70" s="17">
+      <c r="AO70" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -12810,7 +12805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>68</v>
       </c>
@@ -12958,7 +12953,7 @@
       <c r="AN71" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO71" s="17">
+      <c r="AO71" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -12967,7 +12962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>69</v>
       </c>
@@ -13115,7 +13110,7 @@
       <c r="AN72" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO72" s="17">
+      <c r="AO72" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -13124,7 +13119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>70</v>
       </c>
@@ -13272,7 +13267,7 @@
       <c r="AN73" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO73" s="17">
+      <c r="AO73" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -13281,7 +13276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>71</v>
       </c>
@@ -13429,7 +13424,7 @@
       <c r="AN74" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO74" s="17">
+      <c r="AO74" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -13438,7 +13433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>72</v>
       </c>
@@ -13586,7 +13581,7 @@
       <c r="AN75" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO75" s="17">
+      <c r="AO75" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -13595,7 +13590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>73</v>
       </c>
@@ -13743,7 +13738,7 @@
       <c r="AN76" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO76" s="17">
+      <c r="AO76" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -13752,7 +13747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>74</v>
       </c>
@@ -13900,7 +13895,7 @@
       <c r="AN77" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO77" s="17">
+      <c r="AO77" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -13909,7 +13904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>75</v>
       </c>
@@ -14057,7 +14052,7 @@
       <c r="AN78" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO78" s="17">
+      <c r="AO78" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -14066,7 +14061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>76</v>
       </c>
@@ -14214,7 +14209,7 @@
       <c r="AN79" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO79" s="17">
+      <c r="AO79" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -14223,7 +14218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>77</v>
       </c>
@@ -14371,7 +14366,7 @@
       <c r="AN80" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO80" s="17">
+      <c r="AO80" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -14380,7 +14375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>78</v>
       </c>
@@ -14528,7 +14523,7 @@
       <c r="AN81" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO81" s="17">
+      <c r="AO81" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -14537,7 +14532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>79</v>
       </c>
@@ -14685,7 +14680,7 @@
       <c r="AN82" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO82" s="17">
+      <c r="AO82" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -14694,7 +14689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>80</v>
       </c>
@@ -14842,7 +14837,7 @@
       <c r="AN83" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO83" s="17">
+      <c r="AO83" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -14851,7 +14846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>81</v>
       </c>
@@ -14999,7 +14994,7 @@
       <c r="AN84" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO84" s="17">
+      <c r="AO84" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -15008,7 +15003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>82</v>
       </c>
@@ -15156,7 +15151,7 @@
       <c r="AN85" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO85" s="17">
+      <c r="AO85" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -15165,7 +15160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>83</v>
       </c>
@@ -15313,7 +15308,7 @@
       <c r="AN86" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO86" s="17">
+      <c r="AO86" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -15322,7 +15317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>84</v>
       </c>
@@ -15470,7 +15465,7 @@
       <c r="AN87" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO87" s="17">
+      <c r="AO87" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -15479,7 +15474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>85</v>
       </c>
@@ -15627,7 +15622,7 @@
       <c r="AN88" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO88" s="17">
+      <c r="AO88" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -15636,7 +15631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>86</v>
       </c>
@@ -15784,7 +15779,7 @@
       <c r="AN89" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO89" s="17">
+      <c r="AO89" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -15793,7 +15788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>87</v>
       </c>
@@ -15941,7 +15936,7 @@
       <c r="AN90" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO90" s="17">
+      <c r="AO90" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -15950,7 +15945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>88</v>
       </c>
@@ -16098,7 +16093,7 @@
       <c r="AN91" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO91" s="17">
+      <c r="AO91" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -16107,7 +16102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>89</v>
       </c>
@@ -16255,7 +16250,7 @@
       <c r="AN92" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO92" s="17">
+      <c r="AO92" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -16264,7 +16259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>90</v>
       </c>
@@ -16412,7 +16407,7 @@
       <c r="AN93" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO93" s="17">
+      <c r="AO93" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -16421,7 +16416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>91</v>
       </c>
@@ -16569,7 +16564,7 @@
       <c r="AN94" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO94" s="17">
+      <c r="AO94" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -16578,7 +16573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>92</v>
       </c>
@@ -16726,7 +16721,7 @@
       <c r="AN95" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO95" s="17">
+      <c r="AO95" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -16735,7 +16730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>93</v>
       </c>
@@ -16883,7 +16878,7 @@
       <c r="AN96" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO96" s="17">
+      <c r="AO96" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -16892,7 +16887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>94</v>
       </c>
@@ -17040,7 +17035,7 @@
       <c r="AN97" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO97" s="17">
+      <c r="AO97" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -17049,7 +17044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>95</v>
       </c>
@@ -17197,7 +17192,7 @@
       <c r="AN98" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO98" s="17">
+      <c r="AO98" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -17206,7 +17201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>96</v>
       </c>
@@ -17354,7 +17349,7 @@
       <c r="AN99" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO99" s="17">
+      <c r="AO99" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -17363,7 +17358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>97</v>
       </c>
@@ -17511,7 +17506,7 @@
       <c r="AN100" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO100" s="17">
+      <c r="AO100" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -17520,7 +17515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>98</v>
       </c>
@@ -17668,7 +17663,7 @@
       <c r="AN101" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO101" s="17">
+      <c r="AO101" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -17677,7 +17672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>99</v>
       </c>
@@ -17825,7 +17820,7 @@
       <c r="AN102" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO102" s="17">
+      <c r="AO102" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -17834,7 +17829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>100</v>
       </c>
@@ -17982,7 +17977,7 @@
       <c r="AN103" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO103" s="17">
+      <c r="AO103" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -17991,7 +17986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>101</v>
       </c>
@@ -18139,7 +18134,7 @@
       <c r="AN104" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO104" s="17">
+      <c r="AO104" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -18148,7 +18143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>102</v>
       </c>
@@ -18296,7 +18291,7 @@
       <c r="AN105" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO105" s="17">
+      <c r="AO105" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -18305,7 +18300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>103</v>
       </c>
@@ -18453,7 +18448,7 @@
       <c r="AN106" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO106" s="17">
+      <c r="AO106" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -18462,7 +18457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>104</v>
       </c>
@@ -18610,7 +18605,7 @@
       <c r="AN107" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO107" s="17">
+      <c r="AO107" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -18619,7 +18614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>105</v>
       </c>
@@ -18767,7 +18762,7 @@
       <c r="AN108" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO108" s="17">
+      <c r="AO108" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -18776,7 +18771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>106</v>
       </c>
@@ -18924,7 +18919,7 @@
       <c r="AN109" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO109" s="17">
+      <c r="AO109" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -18933,7 +18928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>107</v>
       </c>
@@ -19081,7 +19076,7 @@
       <c r="AN110" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO110" s="17">
+      <c r="AO110" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -19090,7 +19085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>108</v>
       </c>
@@ -19238,7 +19233,7 @@
       <c r="AN111" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO111" s="17">
+      <c r="AO111" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -19247,7 +19242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>109</v>
       </c>
@@ -19395,7 +19390,7 @@
       <c r="AN112" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO112" s="17">
+      <c r="AO112" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -19404,7 +19399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>110</v>
       </c>
@@ -19552,7 +19547,7 @@
       <c r="AN113" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO113" s="17">
+      <c r="AO113" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -19561,7 +19556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>111</v>
       </c>
@@ -19709,7 +19704,7 @@
       <c r="AN114" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO114" s="17">
+      <c r="AO114" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -19718,7 +19713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>112</v>
       </c>
@@ -19866,7 +19861,7 @@
       <c r="AN115" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO115" s="17">
+      <c r="AO115" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -19875,7 +19870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>113</v>
       </c>
@@ -20023,7 +20018,7 @@
       <c r="AN116" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO116" s="17">
+      <c r="AO116" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -20032,7 +20027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>114</v>
       </c>
@@ -20180,7 +20175,7 @@
       <c r="AN117" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO117" s="17">
+      <c r="AO117" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -20189,7 +20184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>115</v>
       </c>
@@ -20337,7 +20332,7 @@
       <c r="AN118" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO118" s="17">
+      <c r="AO118" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -20346,7 +20341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>116</v>
       </c>
@@ -20494,7 +20489,7 @@
       <c r="AN119" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO119" s="17">
+      <c r="AO119" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -20503,7 +20498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>117</v>
       </c>
@@ -20651,7 +20646,7 @@
       <c r="AN120" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO120" s="17">
+      <c r="AO120" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -20660,7 +20655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>118</v>
       </c>
@@ -20808,7 +20803,7 @@
       <c r="AN121" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO121" s="17">
+      <c r="AO121" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -20817,7 +20812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>119</v>
       </c>
@@ -20965,7 +20960,7 @@
       <c r="AN122" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO122" s="17">
+      <c r="AO122" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -20974,7 +20969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>120</v>
       </c>
@@ -21122,7 +21117,7 @@
       <c r="AN123" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO123" s="17">
+      <c r="AO123" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -21131,7 +21126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>121</v>
       </c>
@@ -21279,7 +21274,7 @@
       <c r="AN124" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO124" s="17">
+      <c r="AO124" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -21288,7 +21283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>122</v>
       </c>
@@ -21436,7 +21431,7 @@
       <c r="AN125" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO125" s="17">
+      <c r="AO125" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -21445,7 +21440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>123</v>
       </c>
@@ -21593,7 +21588,7 @@
       <c r="AN126" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO126" s="17">
+      <c r="AO126" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -21602,7 +21597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>124</v>
       </c>
@@ -21750,7 +21745,7 @@
       <c r="AN127" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO127" s="17">
+      <c r="AO127" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -21759,7 +21754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>125</v>
       </c>
@@ -21907,7 +21902,7 @@
       <c r="AN128" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO128" s="17">
+      <c r="AO128" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -21916,7 +21911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>126</v>
       </c>
@@ -22064,7 +22059,7 @@
       <c r="AN129" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO129" s="17">
+      <c r="AO129" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -22073,7 +22068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>127</v>
       </c>
@@ -22221,7 +22216,7 @@
       <c r="AN130" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO130" s="17">
+      <c r="AO130" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -22378,7 +22373,7 @@
       <c r="AN131" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO131" s="17">
+      <c r="AO131" s="10">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
@@ -22535,7 +22530,7 @@
       <c r="AN132" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO132" s="17">
+      <c r="AO132" s="10">
         <f t="shared" ref="AO132:AO195" si="84">_xlfn.BITAND(_xlfn.BITRSHIFT(HEX2DEC(AN132),4),1)</f>
         <v>1</v>
       </c>
@@ -22692,7 +22687,7 @@
       <c r="AN133" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO133" s="17">
+      <c r="AO133" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -22849,7 +22844,7 @@
       <c r="AN134" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO134" s="17">
+      <c r="AO134" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -23006,7 +23001,7 @@
       <c r="AN135" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO135" s="17">
+      <c r="AO135" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -23163,7 +23158,7 @@
       <c r="AN136" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO136" s="17">
+      <c r="AO136" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -23320,7 +23315,7 @@
       <c r="AN137" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO137" s="17">
+      <c r="AO137" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -23477,7 +23472,7 @@
       <c r="AN138" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO138" s="17">
+      <c r="AO138" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -23634,7 +23629,7 @@
       <c r="AN139" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO139" s="17">
+      <c r="AO139" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -23791,7 +23786,7 @@
       <c r="AN140" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO140" s="17">
+      <c r="AO140" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -23948,7 +23943,7 @@
       <c r="AN141" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO141" s="17">
+      <c r="AO141" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -24105,7 +24100,7 @@
       <c r="AN142" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO142" s="17">
+      <c r="AO142" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -24262,7 +24257,7 @@
       <c r="AN143" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO143" s="17">
+      <c r="AO143" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -24419,7 +24414,7 @@
       <c r="AN144" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO144" s="17">
+      <c r="AO144" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -24576,7 +24571,7 @@
       <c r="AN145" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO145" s="17">
+      <c r="AO145" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -24733,7 +24728,7 @@
       <c r="AN146" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO146" s="17">
+      <c r="AO146" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -24890,7 +24885,7 @@
       <c r="AN147" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AO147" s="17">
+      <c r="AO147" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -25047,7 +25042,7 @@
       <c r="AN148" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AO148" s="17">
+      <c r="AO148" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -25204,7 +25199,7 @@
       <c r="AN149" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AO149" s="17">
+      <c r="AO149" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -25361,7 +25356,7 @@
       <c r="AN150" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AO150" s="17">
+      <c r="AO150" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -25518,7 +25513,7 @@
       <c r="AN151" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AO151" s="17">
+      <c r="AO151" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -25675,7 +25670,7 @@
       <c r="AN152" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AO152" s="17">
+      <c r="AO152" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -25832,7 +25827,7 @@
       <c r="AN153" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AO153" s="17">
+      <c r="AO153" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -25989,7 +25984,7 @@
       <c r="AN154" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AO154" s="17">
+      <c r="AO154" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -26146,7 +26141,7 @@
       <c r="AN155" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AO155" s="17">
+      <c r="AO155" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -26303,7 +26298,7 @@
       <c r="AN156" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AO156" s="17">
+      <c r="AO156" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -26460,7 +26455,7 @@
       <c r="AN157" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AO157" s="17">
+      <c r="AO157" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -26617,7 +26612,7 @@
       <c r="AN158" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AO158" s="17">
+      <c r="AO158" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -26774,7 +26769,7 @@
       <c r="AN159" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO159" s="17">
+      <c r="AO159" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -26931,7 +26926,7 @@
       <c r="AN160" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO160" s="17">
+      <c r="AO160" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -27088,7 +27083,7 @@
       <c r="AN161" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO161" s="17">
+      <c r="AO161" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -27245,7 +27240,7 @@
       <c r="AN162" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO162" s="17">
+      <c r="AO162" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -27402,7 +27397,7 @@
       <c r="AN163" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO163" s="17">
+      <c r="AO163" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -27559,7 +27554,7 @@
       <c r="AN164" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO164" s="17">
+      <c r="AO164" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -27716,7 +27711,7 @@
       <c r="AN165" s="10">
         <v>16</v>
       </c>
-      <c r="AO165" s="17">
+      <c r="AO165" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -27873,7 +27868,7 @@
       <c r="AN166" s="10">
         <v>16</v>
       </c>
-      <c r="AO166" s="17">
+      <c r="AO166" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -28030,7 +28025,7 @@
       <c r="AN167" s="10">
         <v>16</v>
       </c>
-      <c r="AO167" s="17">
+      <c r="AO167" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -28187,7 +28182,7 @@
       <c r="AN168" s="10">
         <v>16</v>
       </c>
-      <c r="AO168" s="17">
+      <c r="AO168" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -28344,7 +28339,7 @@
       <c r="AN169" s="10">
         <v>16</v>
       </c>
-      <c r="AO169" s="17">
+      <c r="AO169" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -28501,7 +28496,7 @@
       <c r="AN170" s="10">
         <v>16</v>
       </c>
-      <c r="AO170" s="17">
+      <c r="AO170" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -28658,7 +28653,7 @@
       <c r="AN171" s="10">
         <v>16</v>
       </c>
-      <c r="AO171" s="17">
+      <c r="AO171" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -28815,7 +28810,7 @@
       <c r="AN172" s="10">
         <v>17</v>
       </c>
-      <c r="AO172" s="17">
+      <c r="AO172" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -28972,7 +28967,7 @@
       <c r="AN173" s="10">
         <v>16</v>
       </c>
-      <c r="AO173" s="17">
+      <c r="AO173" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -29129,7 +29124,7 @@
       <c r="AN174" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO174" s="17">
+      <c r="AO174" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -29286,7 +29281,7 @@
       <c r="AN175" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO175" s="17">
+      <c r="AO175" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -29443,7 +29438,7 @@
       <c r="AN176" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO176" s="17">
+      <c r="AO176" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -29600,7 +29595,7 @@
       <c r="AN177" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO177" s="17">
+      <c r="AO177" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -29757,7 +29752,7 @@
       <c r="AN178" s="10">
         <v>17</v>
       </c>
-      <c r="AO178" s="17">
+      <c r="AO178" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -29914,7 +29909,7 @@
       <c r="AN179" s="10">
         <v>13</v>
       </c>
-      <c r="AO179" s="17">
+      <c r="AO179" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -30071,7 +30066,7 @@
       <c r="AN180" s="10">
         <v>13</v>
       </c>
-      <c r="AO180" s="17">
+      <c r="AO180" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -30228,7 +30223,7 @@
       <c r="AN181" s="10">
         <v>14</v>
       </c>
-      <c r="AO181" s="17">
+      <c r="AO181" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -30385,7 +30380,7 @@
       <c r="AN182" s="10">
         <v>13</v>
       </c>
-      <c r="AO182" s="17">
+      <c r="AO182" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -30542,7 +30537,7 @@
       <c r="AN183" s="10">
         <v>13</v>
       </c>
-      <c r="AO183" s="17">
+      <c r="AO183" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -30699,7 +30694,7 @@
       <c r="AN184" s="10">
         <v>14</v>
       </c>
-      <c r="AO184" s="17">
+      <c r="AO184" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -30856,7 +30851,7 @@
       <c r="AN185" s="10">
         <v>13</v>
       </c>
-      <c r="AO185" s="17">
+      <c r="AO185" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -31013,7 +31008,7 @@
       <c r="AN186" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO186" s="17">
+      <c r="AO186" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -31170,7 +31165,7 @@
       <c r="AN187" s="10">
         <v>14</v>
       </c>
-      <c r="AO187" s="17">
+      <c r="AO187" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -31327,7 +31322,7 @@
       <c r="AN188" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO188" s="17">
+      <c r="AO188" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -31484,7 +31479,7 @@
       <c r="AN189" s="10">
         <v>14</v>
       </c>
-      <c r="AO189" s="17">
+      <c r="AO189" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -31641,7 +31636,7 @@
       <c r="AN190" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO190" s="17">
+      <c r="AO190" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -31798,7 +31793,7 @@
       <c r="AN191" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO191" s="17">
+      <c r="AO191" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -31955,7 +31950,7 @@
       <c r="AN192" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO192" s="17">
+      <c r="AO192" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -32112,7 +32107,7 @@
       <c r="AN193" s="10">
         <v>13</v>
       </c>
-      <c r="AO193" s="17">
+      <c r="AO193" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -32269,7 +32264,7 @@
       <c r="AN194" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO194" s="17">
+      <c r="AO194" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -32278,7 +32273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>192</v>
       </c>
@@ -32426,7 +32421,7 @@
       <c r="AN195" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO195" s="17">
+      <c r="AO195" s="10">
         <f t="shared" si="84"/>
         <v>1</v>
       </c>
@@ -32435,7 +32430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>193</v>
       </c>
@@ -32583,7 +32578,7 @@
       <c r="AN196" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO196" s="17">
+      <c r="AO196" s="10">
         <f t="shared" ref="AO196:AO259" si="113">_xlfn.BITAND(_xlfn.BITRSHIFT(HEX2DEC(AN196),4),1)</f>
         <v>1</v>
       </c>
@@ -32740,7 +32735,7 @@
       <c r="AN197" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AO197" s="17">
+      <c r="AO197" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -32897,7 +32892,7 @@
       <c r="AN198" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AO198" s="17">
+      <c r="AO198" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -33054,7 +33049,7 @@
       <c r="AN199" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AO199" s="17">
+      <c r="AO199" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -33211,7 +33206,7 @@
       <c r="AN200" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AO200" s="17">
+      <c r="AO200" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -33368,7 +33363,7 @@
       <c r="AN201" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO201" s="17">
+      <c r="AO201" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -33525,7 +33520,7 @@
       <c r="AN202" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO202" s="17">
+      <c r="AO202" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -33682,7 +33677,7 @@
       <c r="AN203" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO203" s="17">
+      <c r="AO203" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -33839,7 +33834,7 @@
       <c r="AN204" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO204" s="17">
+      <c r="AO204" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -33996,7 +33991,7 @@
       <c r="AN205" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO205" s="17">
+      <c r="AO205" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -34153,7 +34148,7 @@
       <c r="AN206" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO206" s="17">
+      <c r="AO206" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -34310,7 +34305,7 @@
       <c r="AN207" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO207" s="17">
+      <c r="AO207" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -34467,7 +34462,7 @@
       <c r="AN208" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO208" s="17">
+      <c r="AO208" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -34624,7 +34619,7 @@
       <c r="AN209" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO209" s="17">
+      <c r="AO209" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -34781,7 +34776,7 @@
       <c r="AN210" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO210" s="17">
+      <c r="AO210" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -34790,7 +34785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>208</v>
       </c>
@@ -34938,7 +34933,7 @@
       <c r="AN211" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO211" s="17">
+      <c r="AO211" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -34947,7 +34942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>209</v>
       </c>
@@ -35095,7 +35090,7 @@
       <c r="AN212" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO212" s="17">
+      <c r="AO212" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -35252,7 +35247,7 @@
       <c r="AN213" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO213" s="17">
+      <c r="AO213" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -35261,7 +35256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>211</v>
       </c>
@@ -35409,7 +35404,7 @@
       <c r="AN214" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO214" s="17">
+      <c r="AO214" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -35418,7 +35413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>212</v>
       </c>
@@ -35566,7 +35561,7 @@
       <c r="AN215" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO215" s="17">
+      <c r="AO215" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -35575,7 +35570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>213</v>
       </c>
@@ -35723,7 +35718,7 @@
       <c r="AN216" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO216" s="17">
+      <c r="AO216" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -35880,7 +35875,7 @@
       <c r="AN217" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO217" s="17">
+      <c r="AO217" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -35889,7 +35884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>215</v>
       </c>
@@ -36037,7 +36032,7 @@
       <c r="AN218" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO218" s="17">
+      <c r="AO218" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -36194,7 +36189,7 @@
       <c r="AN219" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO219" s="17">
+      <c r="AO219" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -36203,7 +36198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>217</v>
       </c>
@@ -36351,7 +36346,7 @@
       <c r="AN220" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO220" s="17">
+      <c r="AO220" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -36360,7 +36355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>218</v>
       </c>
@@ -36508,7 +36503,7 @@
       <c r="AN221" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO221" s="17">
+      <c r="AO221" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -36517,7 +36512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>219</v>
       </c>
@@ -36665,7 +36660,7 @@
       <c r="AN222" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO222" s="17">
+      <c r="AO222" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -36674,7 +36669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>220</v>
       </c>
@@ -36822,7 +36817,7 @@
       <c r="AN223" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO223" s="17">
+      <c r="AO223" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -36831,7 +36826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>221</v>
       </c>
@@ -36979,7 +36974,7 @@
       <c r="AN224" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO224" s="17">
+      <c r="AO224" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -36988,7 +36983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>222</v>
       </c>
@@ -37136,7 +37131,7 @@
       <c r="AN225" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO225" s="17">
+      <c r="AO225" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -37145,7 +37140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>223</v>
       </c>
@@ -37293,7 +37288,7 @@
       <c r="AN226" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO226" s="17">
+      <c r="AO226" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -37302,7 +37297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>224</v>
       </c>
@@ -37450,7 +37445,7 @@
       <c r="AN227" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO227" s="17">
+      <c r="AO227" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -37607,7 +37602,7 @@
       <c r="AN228" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO228" s="17">
+      <c r="AO228" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -37764,7 +37759,7 @@
       <c r="AN229" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO229" s="17">
+      <c r="AO229" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -37921,7 +37916,7 @@
       <c r="AN230" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO230" s="17">
+      <c r="AO230" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -38078,7 +38073,7 @@
       <c r="AN231" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO231" s="17">
+      <c r="AO231" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -38235,7 +38230,7 @@
       <c r="AN232" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO232" s="17">
+      <c r="AO232" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -38392,7 +38387,7 @@
       <c r="AN233" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO233" s="17">
+      <c r="AO233" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -38549,7 +38544,7 @@
       <c r="AN234" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO234" s="17">
+      <c r="AO234" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -38706,7 +38701,7 @@
       <c r="AN235" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO235" s="17">
+      <c r="AO235" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -38863,7 +38858,7 @@
       <c r="AN236" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO236" s="17">
+      <c r="AO236" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -39020,7 +39015,7 @@
       <c r="AN237" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO237" s="17">
+      <c r="AO237" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -39177,7 +39172,7 @@
       <c r="AN238" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO238" s="17">
+      <c r="AO238" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -39334,7 +39329,7 @@
       <c r="AN239" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO239" s="17">
+      <c r="AO239" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -39491,7 +39486,7 @@
       <c r="AN240" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO240" s="17">
+      <c r="AO240" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -39648,7 +39643,7 @@
       <c r="AN241" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO241" s="17">
+      <c r="AO241" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -39805,7 +39800,7 @@
       <c r="AN242" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO242" s="17">
+      <c r="AO242" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -39962,7 +39957,7 @@
       <c r="AN243" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO243" s="17">
+      <c r="AO243" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -40119,7 +40114,7 @@
       <c r="AN244" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO244" s="17">
+      <c r="AO244" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -40276,7 +40271,7 @@
       <c r="AN245" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO245" s="17">
+      <c r="AO245" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -40433,7 +40428,7 @@
       <c r="AN246" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO246" s="17">
+      <c r="AO246" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -40590,7 +40585,7 @@
       <c r="AN247" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO247" s="17">
+      <c r="AO247" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -40747,7 +40742,7 @@
       <c r="AN248" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO248" s="17">
+      <c r="AO248" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -40904,7 +40899,7 @@
       <c r="AN249" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO249" s="17">
+      <c r="AO249" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -41061,7 +41056,7 @@
       <c r="AN250" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO250" s="17">
+      <c r="AO250" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -41218,7 +41213,7 @@
       <c r="AN251" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO251" s="17">
+      <c r="AO251" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -41375,7 +41370,7 @@
       <c r="AN252" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO252" s="17">
+      <c r="AO252" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -41532,7 +41527,7 @@
       <c r="AN253" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO253" s="17">
+      <c r="AO253" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -41689,7 +41684,7 @@
       <c r="AN254" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO254" s="17">
+      <c r="AO254" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -41846,7 +41841,7 @@
       <c r="AN255" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO255" s="17">
+      <c r="AO255" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -42003,7 +41998,7 @@
       <c r="AN256" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO256" s="17">
+      <c r="AO256" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -42160,7 +42155,7 @@
       <c r="AN257" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO257" s="17">
+      <c r="AO257" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -42317,7 +42312,7 @@
       <c r="AN258" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO258" s="17">
+      <c r="AO258" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -42474,7 +42469,7 @@
       <c r="AN259" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO259" s="17">
+      <c r="AO259" s="10">
         <f t="shared" si="113"/>
         <v>1</v>
       </c>
@@ -42631,7 +42626,7 @@
       <c r="AN260" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO260" s="17">
+      <c r="AO260" s="10">
         <f t="shared" ref="AO260:AO323" si="142">_xlfn.BITAND(_xlfn.BITRSHIFT(HEX2DEC(AN260),4),1)</f>
         <v>1</v>
       </c>
@@ -42788,7 +42783,7 @@
       <c r="AN261" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO261" s="17">
+      <c r="AO261" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -42945,7 +42940,7 @@
       <c r="AN262" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO262" s="17">
+      <c r="AO262" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -43102,7 +43097,7 @@
       <c r="AN263" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO263" s="17">
+      <c r="AO263" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -43259,7 +43254,7 @@
       <c r="AN264" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO264" s="17">
+      <c r="AO264" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -43416,7 +43411,7 @@
       <c r="AN265" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO265" s="17">
+      <c r="AO265" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -43573,7 +43568,7 @@
       <c r="AN266" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO266" s="17">
+      <c r="AO266" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -43730,7 +43725,7 @@
       <c r="AN267" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO267" s="17">
+      <c r="AO267" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -43887,7 +43882,7 @@
       <c r="AN268" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO268" s="17">
+      <c r="AO268" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -44044,7 +44039,7 @@
       <c r="AN269" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO269" s="17">
+      <c r="AO269" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -44201,7 +44196,7 @@
       <c r="AN270" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO270" s="17">
+      <c r="AO270" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -44358,7 +44353,7 @@
       <c r="AN271" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO271" s="17">
+      <c r="AO271" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -44515,7 +44510,7 @@
       <c r="AN272" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO272" s="17">
+      <c r="AO272" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -44672,7 +44667,7 @@
       <c r="AN273" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO273" s="17">
+      <c r="AO273" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -44681,7 +44676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>271</v>
       </c>
@@ -44829,7 +44824,7 @@
       <c r="AN274" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO274" s="17">
+      <c r="AO274" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -44986,7 +44981,7 @@
       <c r="AN275" s="10">
         <v>13</v>
       </c>
-      <c r="AO275" s="17">
+      <c r="AO275" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -45143,7 +45138,7 @@
       <c r="AN276" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO276" s="17">
+      <c r="AO276" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -45300,7 +45295,7 @@
       <c r="AN277" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AO277" s="17">
+      <c r="AO277" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -45457,7 +45452,7 @@
       <c r="AN278" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO278" s="17">
+      <c r="AO278" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -45614,7 +45609,7 @@
       <c r="AN279" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO279" s="17">
+      <c r="AO279" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -45771,7 +45766,7 @@
       <c r="AN280" s="10">
         <v>17</v>
       </c>
-      <c r="AO280" s="17">
+      <c r="AO280" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -45928,7 +45923,7 @@
       <c r="AN281" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AO281" s="17">
+      <c r="AO281" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -46085,7 +46080,7 @@
       <c r="AN282" s="10">
         <v>16</v>
       </c>
-      <c r="AO282" s="17">
+      <c r="AO282" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -46242,7 +46237,7 @@
       <c r="AN283" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO283" s="17">
+      <c r="AO283" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -46399,7 +46394,7 @@
       <c r="AN284" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO284" s="17">
+      <c r="AO284" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -46556,7 +46551,7 @@
       <c r="AN285" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO285" s="17">
+      <c r="AO285" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -46713,7 +46708,7 @@
       <c r="AN286" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO286" s="17">
+      <c r="AO286" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -46870,7 +46865,7 @@
       <c r="AN287" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO287" s="17">
+      <c r="AO287" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -47027,7 +47022,7 @@
       <c r="AN288" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO288" s="17">
+      <c r="AO288" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -47184,7 +47179,7 @@
       <c r="AN289" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO289" s="17">
+      <c r="AO289" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -47341,7 +47336,7 @@
       <c r="AN290" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO290" s="17">
+      <c r="AO290" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -47498,7 +47493,7 @@
       <c r="AN291" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO291" s="17">
+      <c r="AO291" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -47655,7 +47650,7 @@
       <c r="AN292" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO292" s="17">
+      <c r="AO292" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -47812,7 +47807,7 @@
       <c r="AN293" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO293" s="17">
+      <c r="AO293" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -47969,7 +47964,7 @@
       <c r="AN294" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO294" s="17">
+      <c r="AO294" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -48126,7 +48121,7 @@
       <c r="AN295" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO295" s="17">
+      <c r="AO295" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -48283,7 +48278,7 @@
       <c r="AN296" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO296" s="17">
+      <c r="AO296" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -48440,7 +48435,7 @@
       <c r="AN297" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO297" s="17">
+      <c r="AO297" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -48597,7 +48592,7 @@
       <c r="AN298" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO298" s="17">
+      <c r="AO298" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -48754,7 +48749,7 @@
       <c r="AN299" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO299" s="17">
+      <c r="AO299" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -48911,7 +48906,7 @@
       <c r="AN300" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO300" s="17">
+      <c r="AO300" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -49068,7 +49063,7 @@
       <c r="AN301" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO301" s="17">
+      <c r="AO301" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -49225,7 +49220,7 @@
       <c r="AN302" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO302" s="17">
+      <c r="AO302" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -49382,7 +49377,7 @@
       <c r="AN303" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO303" s="17">
+      <c r="AO303" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -49539,7 +49534,7 @@
       <c r="AN304" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO304" s="17">
+      <c r="AO304" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -49696,7 +49691,7 @@
       <c r="AN305" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO305" s="17">
+      <c r="AO305" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -49853,7 +49848,7 @@
       <c r="AN306" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO306" s="17">
+      <c r="AO306" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -50010,7 +50005,7 @@
       <c r="AN307" s="10">
         <v>19</v>
       </c>
-      <c r="AO307" s="17">
+      <c r="AO307" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -50167,7 +50162,7 @@
       <c r="AN308" s="10">
         <v>19</v>
       </c>
-      <c r="AO308" s="17">
+      <c r="AO308" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -50324,7 +50319,7 @@
       <c r="AN309" s="10">
         <v>19</v>
       </c>
-      <c r="AO309" s="17">
+      <c r="AO309" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -50481,7 +50476,7 @@
       <c r="AN310" s="10">
         <v>19</v>
       </c>
-      <c r="AO310" s="17">
+      <c r="AO310" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -50638,7 +50633,7 @@
       <c r="AN311" s="10">
         <v>12</v>
       </c>
-      <c r="AO311" s="17">
+      <c r="AO311" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -50795,7 +50790,7 @@
       <c r="AN312" s="10">
         <v>12</v>
       </c>
-      <c r="AO312" s="17">
+      <c r="AO312" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -50952,7 +50947,7 @@
       <c r="AN313" s="10">
         <v>12</v>
       </c>
-      <c r="AO313" s="17">
+      <c r="AO313" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -51109,7 +51104,7 @@
       <c r="AN314" s="10">
         <v>12</v>
       </c>
-      <c r="AO314" s="17">
+      <c r="AO314" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -51266,7 +51261,7 @@
       <c r="AN315" s="10">
         <v>19</v>
       </c>
-      <c r="AO315" s="17">
+      <c r="AO315" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -51423,7 +51418,7 @@
       <c r="AN316" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO316" s="17">
+      <c r="AO316" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -51580,7 +51575,7 @@
       <c r="AN317" s="10">
         <v>12</v>
       </c>
-      <c r="AO317" s="17">
+      <c r="AO317" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -51737,7 +51732,7 @@
       <c r="AN318" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO318" s="17">
+      <c r="AO318" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -51894,7 +51889,7 @@
       <c r="AN319" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO319" s="17">
+      <c r="AO319" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -52051,7 +52046,7 @@
       <c r="AN320" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AO320" s="17">
+      <c r="AO320" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -52208,7 +52203,7 @@
       <c r="AN321" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO321" s="17">
+      <c r="AO321" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -52365,7 +52360,7 @@
       <c r="AN322" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO322" s="17">
+      <c r="AO322" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -52374,7 +52369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>320</v>
       </c>
@@ -52522,7 +52517,7 @@
       <c r="AN323" s="10">
         <v>10</v>
       </c>
-      <c r="AO323" s="17">
+      <c r="AO323" s="10">
         <f t="shared" si="142"/>
         <v>1</v>
       </c>
@@ -52531,7 +52526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>321</v>
       </c>
@@ -52679,7 +52674,7 @@
       <c r="AN324" s="10">
         <v>10</v>
       </c>
-      <c r="AO324" s="17">
+      <c r="AO324" s="10">
         <f t="shared" ref="AO324:AO387" si="171">_xlfn.BITAND(_xlfn.BITRSHIFT(HEX2DEC(AN324),4),1)</f>
         <v>1</v>
       </c>
@@ -52688,7 +52683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>322</v>
       </c>
@@ -52836,7 +52831,7 @@
       <c r="AN325" s="10">
         <v>10</v>
       </c>
-      <c r="AO325" s="17">
+      <c r="AO325" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -52845,7 +52840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>323</v>
       </c>
@@ -52993,7 +52988,7 @@
       <c r="AN326" s="10">
         <v>10</v>
       </c>
-      <c r="AO326" s="17">
+      <c r="AO326" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -53002,7 +52997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>324</v>
       </c>
@@ -53150,7 +53145,7 @@
       <c r="AN327" s="10">
         <v>10</v>
       </c>
-      <c r="AO327" s="17">
+      <c r="AO327" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -53159,7 +53154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>325</v>
       </c>
@@ -53307,7 +53302,7 @@
       <c r="AN328" s="10">
         <v>10</v>
       </c>
-      <c r="AO328" s="17">
+      <c r="AO328" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -53316,7 +53311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>326</v>
       </c>
@@ -53464,7 +53459,7 @@
       <c r="AN329" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO329" s="17">
+      <c r="AO329" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -53473,7 +53468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>327</v>
       </c>
@@ -53621,7 +53616,7 @@
       <c r="AN330" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO330" s="17">
+      <c r="AO330" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -53630,7 +53625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>328</v>
       </c>
@@ -53778,7 +53773,7 @@
       <c r="AN331" s="10">
         <v>10</v>
       </c>
-      <c r="AO331" s="17">
+      <c r="AO331" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -53787,7 +53782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>329</v>
       </c>
@@ -53935,7 +53930,7 @@
       <c r="AN332" s="10">
         <v>10</v>
       </c>
-      <c r="AO332" s="17">
+      <c r="AO332" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -53944,7 +53939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>330</v>
       </c>
@@ -54092,7 +54087,7 @@
       <c r="AN333" s="10">
         <v>10</v>
       </c>
-      <c r="AO333" s="17">
+      <c r="AO333" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -54101,7 +54096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>331</v>
       </c>
@@ -54249,7 +54244,7 @@
       <c r="AN334" s="10">
         <v>10</v>
       </c>
-      <c r="AO334" s="17">
+      <c r="AO334" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -54258,7 +54253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>332</v>
       </c>
@@ -54406,7 +54401,7 @@
       <c r="AN335" s="10">
         <v>10</v>
       </c>
-      <c r="AO335" s="17">
+      <c r="AO335" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -54415,7 +54410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>333</v>
       </c>
@@ -54563,7 +54558,7 @@
       <c r="AN336" s="10">
         <v>10</v>
       </c>
-      <c r="AO336" s="17">
+      <c r="AO336" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -54572,7 +54567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>334</v>
       </c>
@@ -54720,7 +54715,7 @@
       <c r="AN337" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO337" s="17">
+      <c r="AO337" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -54729,7 +54724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>335</v>
       </c>
@@ -54877,7 +54872,7 @@
       <c r="AN338" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO338" s="17">
+      <c r="AO338" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -54886,7 +54881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>336</v>
       </c>
@@ -55034,7 +55029,7 @@
       <c r="AN339" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO339" s="17">
+      <c r="AO339" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -55043,7 +55038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>337</v>
       </c>
@@ -55191,7 +55186,7 @@
       <c r="AN340" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO340" s="17">
+      <c r="AO340" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -55200,7 +55195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>338</v>
       </c>
@@ -55348,7 +55343,7 @@
       <c r="AN341" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO341" s="17">
+      <c r="AO341" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -55357,7 +55352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>339</v>
       </c>
@@ -55505,7 +55500,7 @@
       <c r="AN342" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO342" s="17">
+      <c r="AO342" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -55514,7 +55509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>340</v>
       </c>
@@ -55662,7 +55657,7 @@
       <c r="AN343" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO343" s="17">
+      <c r="AO343" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -55819,7 +55814,7 @@
       <c r="AN344" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO344" s="17">
+      <c r="AO344" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -55976,7 +55971,7 @@
       <c r="AN345" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO345" s="17">
+      <c r="AO345" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -55985,7 +55980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>343</v>
       </c>
@@ -56133,7 +56128,7 @@
       <c r="AN346" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO346" s="17">
+      <c r="AO346" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -56142,7 +56137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>344</v>
       </c>
@@ -56290,7 +56285,7 @@
       <c r="AN347" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO347" s="17">
+      <c r="AO347" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -56299,7 +56294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>345</v>
       </c>
@@ -56447,7 +56442,7 @@
       <c r="AN348" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO348" s="17">
+      <c r="AO348" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -56456,7 +56451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>346</v>
       </c>
@@ -56604,7 +56599,7 @@
       <c r="AN349" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO349" s="17">
+      <c r="AO349" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -56613,7 +56608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>347</v>
       </c>
@@ -56761,7 +56756,7 @@
       <c r="AN350" s="10">
         <v>10</v>
       </c>
-      <c r="AO350" s="17">
+      <c r="AO350" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -56770,7 +56765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>348</v>
       </c>
@@ -56918,7 +56913,7 @@
       <c r="AN351" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO351" s="17">
+      <c r="AO351" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -56927,7 +56922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>349</v>
       </c>
@@ -57075,7 +57070,7 @@
       <c r="AN352" s="10">
         <v>10</v>
       </c>
-      <c r="AO352" s="17">
+      <c r="AO352" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -57084,7 +57079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>350</v>
       </c>
@@ -57232,7 +57227,7 @@
       <c r="AN353" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO353" s="17">
+      <c r="AO353" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -57389,7 +57384,7 @@
       <c r="AN354" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO354" s="17">
+      <c r="AO354" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -57398,7 +57393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>352</v>
       </c>
@@ -57546,7 +57541,7 @@
       <c r="AN355" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO355" s="17">
+      <c r="AO355" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -57555,7 +57550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>353</v>
       </c>
@@ -57703,7 +57698,7 @@
       <c r="AN356" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO356" s="17">
+      <c r="AO356" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -57712,7 +57707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>354</v>
       </c>
@@ -57860,7 +57855,7 @@
       <c r="AN357" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO357" s="17">
+      <c r="AO357" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -57869,7 +57864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>355</v>
       </c>
@@ -58017,7 +58012,7 @@
       <c r="AN358" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO358" s="17">
+      <c r="AO358" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -58026,7 +58021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="359" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>356</v>
       </c>
@@ -58174,7 +58169,7 @@
       <c r="AN359" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AO359" s="17">
+      <c r="AO359" s="10">
         <f t="shared" si="171"/>
         <v>0</v>
       </c>
@@ -58183,7 +58178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>357</v>
       </c>
@@ -58331,7 +58326,7 @@
       <c r="AN360" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AO360" s="17">
+      <c r="AO360" s="10">
         <f t="shared" si="171"/>
         <v>0</v>
       </c>
@@ -58340,7 +58335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>358</v>
       </c>
@@ -58488,7 +58483,7 @@
       <c r="AN361" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AO361" s="17">
+      <c r="AO361" s="10">
         <f t="shared" si="171"/>
         <v>0</v>
       </c>
@@ -58497,7 +58492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>359</v>
       </c>
@@ -58645,7 +58640,7 @@
       <c r="AN362" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO362" s="17">
+      <c r="AO362" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -58654,7 +58649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>360</v>
       </c>
@@ -58802,7 +58797,7 @@
       <c r="AN363" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO363" s="17">
+      <c r="AO363" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -58811,7 +58806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>361</v>
       </c>
@@ -58959,7 +58954,7 @@
       <c r="AN364" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO364" s="17">
+      <c r="AO364" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -58968,7 +58963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>362</v>
       </c>
@@ -59116,7 +59111,7 @@
       <c r="AN365" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO365" s="17">
+      <c r="AO365" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -59125,7 +59120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>363</v>
       </c>
@@ -59273,7 +59268,7 @@
       <c r="AN366" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO366" s="17">
+      <c r="AO366" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -59282,7 +59277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="367" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>364</v>
       </c>
@@ -59430,7 +59425,7 @@
       <c r="AN367" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO367" s="17">
+      <c r="AO367" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -59439,7 +59434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>365</v>
       </c>
@@ -59587,7 +59582,7 @@
       <c r="AN368" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AO368" s="17">
+      <c r="AO368" s="10">
         <f t="shared" si="171"/>
         <v>0</v>
       </c>
@@ -59596,7 +59591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>366</v>
       </c>
@@ -59744,7 +59739,7 @@
       <c r="AN369" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AO369" s="17">
+      <c r="AO369" s="10">
         <f t="shared" si="171"/>
         <v>0</v>
       </c>
@@ -59753,7 +59748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="370" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>367</v>
       </c>
@@ -59901,7 +59896,7 @@
       <c r="AN370" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AO370" s="17">
+      <c r="AO370" s="10">
         <f t="shared" si="171"/>
         <v>0</v>
       </c>
@@ -59910,7 +59905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>368</v>
       </c>
@@ -60058,7 +60053,7 @@
       <c r="AN371" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO371" s="17">
+      <c r="AO371" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -60067,7 +60062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="372" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>369</v>
       </c>
@@ -60215,7 +60210,7 @@
       <c r="AN372" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO372" s="17">
+      <c r="AO372" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -60224,7 +60219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>370</v>
       </c>
@@ -60372,7 +60367,7 @@
       <c r="AN373" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO373" s="17">
+      <c r="AO373" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -60381,7 +60376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>371</v>
       </c>
@@ -60529,7 +60524,7 @@
       <c r="AN374" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO374" s="17">
+      <c r="AO374" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -60538,7 +60533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>372</v>
       </c>
@@ -60686,7 +60681,7 @@
       <c r="AN375" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO375" s="17">
+      <c r="AO375" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -60695,7 +60690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>373</v>
       </c>
@@ -60843,7 +60838,7 @@
       <c r="AN376" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO376" s="17">
+      <c r="AO376" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -60852,7 +60847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>374</v>
       </c>
@@ -61000,7 +60995,7 @@
       <c r="AN377" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO377" s="17">
+      <c r="AO377" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -61009,7 +61004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>375</v>
       </c>
@@ -61157,7 +61152,7 @@
       <c r="AN378" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO378" s="17">
+      <c r="AO378" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -61166,7 +61161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>376</v>
       </c>
@@ -61314,7 +61309,7 @@
       <c r="AN379" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO379" s="17">
+      <c r="AO379" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -61323,7 +61318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>377</v>
       </c>
@@ -61471,7 +61466,7 @@
       <c r="AN380" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO380" s="17">
+      <c r="AO380" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -61480,7 +61475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>378</v>
       </c>
@@ -61628,7 +61623,7 @@
       <c r="AN381" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO381" s="17">
+      <c r="AO381" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -61637,7 +61632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>379</v>
       </c>
@@ -61785,7 +61780,7 @@
       <c r="AN382" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO382" s="17">
+      <c r="AO382" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -61794,7 +61789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="383" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>380</v>
       </c>
@@ -61942,7 +61937,7 @@
       <c r="AN383" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO383" s="17">
+      <c r="AO383" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -61951,7 +61946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>381</v>
       </c>
@@ -62099,7 +62094,7 @@
       <c r="AN384" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO384" s="17">
+      <c r="AO384" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -62108,7 +62103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="385" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>382</v>
       </c>
@@ -62256,7 +62251,7 @@
       <c r="AN385" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO385" s="17">
+      <c r="AO385" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -62265,7 +62260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="386" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>383</v>
       </c>
@@ -62413,7 +62408,7 @@
       <c r="AN386" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO386" s="17">
+      <c r="AO386" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -62422,7 +62417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="387" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>384</v>
       </c>
@@ -62570,7 +62565,7 @@
       <c r="AN387" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO387" s="17">
+      <c r="AO387" s="10">
         <f t="shared" si="171"/>
         <v>1</v>
       </c>
@@ -62579,7 +62574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="388" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>385</v>
       </c>
@@ -62727,7 +62722,7 @@
       <c r="AN388" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO388" s="17">
+      <c r="AO388" s="10">
         <f t="shared" ref="AO388:AO451" si="200">_xlfn.BITAND(_xlfn.BITRSHIFT(HEX2DEC(AN388),4),1)</f>
         <v>1</v>
       </c>
@@ -62736,7 +62731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="389" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>386</v>
       </c>
@@ -62884,7 +62879,7 @@
       <c r="AN389" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO389" s="17">
+      <c r="AO389" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -62893,7 +62888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="390" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>387</v>
       </c>
@@ -63041,7 +63036,7 @@
       <c r="AN390" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO390" s="17">
+      <c r="AO390" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -63050,7 +63045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>388</v>
       </c>
@@ -63198,7 +63193,7 @@
       <c r="AN391" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO391" s="17">
+      <c r="AO391" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -63207,7 +63202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>389</v>
       </c>
@@ -63355,7 +63350,7 @@
       <c r="AN392" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO392" s="17">
+      <c r="AO392" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -63364,7 +63359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="393" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>390</v>
       </c>
@@ -63512,7 +63507,7 @@
       <c r="AN393" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO393" s="17">
+      <c r="AO393" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -63521,7 +63516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="394" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>391</v>
       </c>
@@ -63669,7 +63664,7 @@
       <c r="AN394" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO394" s="17">
+      <c r="AO394" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -63678,7 +63673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>392</v>
       </c>
@@ -63826,7 +63821,7 @@
       <c r="AN395" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO395" s="17">
+      <c r="AO395" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -63835,7 +63830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>393</v>
       </c>
@@ -63983,7 +63978,7 @@
       <c r="AN396" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO396" s="17">
+      <c r="AO396" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -63992,7 +63987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>394</v>
       </c>
@@ -64140,7 +64135,7 @@
       <c r="AN397" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO397" s="17">
+      <c r="AO397" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -64149,7 +64144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="398" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>395</v>
       </c>
@@ -64297,7 +64292,7 @@
       <c r="AN398" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO398" s="17">
+      <c r="AO398" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -64306,7 +64301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="399" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>396</v>
       </c>
@@ -64454,7 +64449,7 @@
       <c r="AN399" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO399" s="17">
+      <c r="AO399" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -64463,7 +64458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="400" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>397</v>
       </c>
@@ -64611,7 +64606,7 @@
       <c r="AN400" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO400" s="17">
+      <c r="AO400" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -64620,7 +64615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="401" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>398</v>
       </c>
@@ -64768,7 +64763,7 @@
       <c r="AN401" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO401" s="17">
+      <c r="AO401" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -64777,7 +64772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>399</v>
       </c>
@@ -64925,7 +64920,7 @@
       <c r="AN402" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO402" s="17">
+      <c r="AO402" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -64934,7 +64929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="403" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>400</v>
       </c>
@@ -65082,7 +65077,7 @@
       <c r="AN403" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO403" s="17">
+      <c r="AO403" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -65091,7 +65086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="404" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>401</v>
       </c>
@@ -65239,7 +65234,7 @@
       <c r="AN404" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO404" s="17">
+      <c r="AO404" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -65248,7 +65243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="405" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>402</v>
       </c>
@@ -65396,7 +65391,7 @@
       <c r="AN405" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO405" s="17">
+      <c r="AO405" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -65405,7 +65400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="406" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>403</v>
       </c>
@@ -65553,7 +65548,7 @@
       <c r="AN406" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO406" s="17">
+      <c r="AO406" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -65562,7 +65557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="407" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>404</v>
       </c>
@@ -65710,7 +65705,7 @@
       <c r="AN407" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO407" s="17">
+      <c r="AO407" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -65719,7 +65714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="408" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>405</v>
       </c>
@@ -65867,7 +65862,7 @@
       <c r="AN408" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO408" s="17">
+      <c r="AO408" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -65876,7 +65871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="409" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>406</v>
       </c>
@@ -66024,7 +66019,7 @@
       <c r="AN409" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO409" s="17">
+      <c r="AO409" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -66033,7 +66028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="410" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>407</v>
       </c>
@@ -66181,7 +66176,7 @@
       <c r="AN410" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO410" s="17">
+      <c r="AO410" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -66190,7 +66185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="411" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>408</v>
       </c>
@@ -66338,7 +66333,7 @@
       <c r="AN411" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO411" s="17">
+      <c r="AO411" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -66347,7 +66342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="412" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>409</v>
       </c>
@@ -66495,7 +66490,7 @@
       <c r="AN412" s="10">
         <v>10</v>
       </c>
-      <c r="AO412" s="17">
+      <c r="AO412" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -66504,7 +66499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>410</v>
       </c>
@@ -66652,7 +66647,7 @@
       <c r="AN413" s="10">
         <v>10</v>
       </c>
-      <c r="AO413" s="17">
+      <c r="AO413" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -66661,7 +66656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>411</v>
       </c>
@@ -66809,7 +66804,7 @@
       <c r="AN414" s="10">
         <v>10</v>
       </c>
-      <c r="AO414" s="17">
+      <c r="AO414" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -66818,7 +66813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>412</v>
       </c>
@@ -66966,7 +66961,7 @@
       <c r="AN415" s="10">
         <v>10</v>
       </c>
-      <c r="AO415" s="17">
+      <c r="AO415" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -66975,7 +66970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>413</v>
       </c>
@@ -67123,7 +67118,7 @@
       <c r="AN416" s="10">
         <v>10</v>
       </c>
-      <c r="AO416" s="17">
+      <c r="AO416" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -67132,7 +67127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>414</v>
       </c>
@@ -67280,7 +67275,7 @@
       <c r="AN417" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO417" s="17">
+      <c r="AO417" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -67289,7 +67284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="418" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>415</v>
       </c>
@@ -67437,7 +67432,7 @@
       <c r="AN418" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO418" s="17">
+      <c r="AO418" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -67446,7 +67441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="419" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>416</v>
       </c>
@@ -67594,7 +67589,7 @@
       <c r="AN419" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO419" s="17">
+      <c r="AO419" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -67603,7 +67598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="420" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>417</v>
       </c>
@@ -67751,7 +67746,7 @@
       <c r="AN420" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO420" s="17">
+      <c r="AO420" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -67760,7 +67755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="421" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>418</v>
       </c>
@@ -67908,7 +67903,7 @@
       <c r="AN421" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO421" s="17">
+      <c r="AO421" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -67917,7 +67912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="422" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>419</v>
       </c>
@@ -68065,7 +68060,7 @@
       <c r="AN422" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO422" s="17">
+      <c r="AO422" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -68074,7 +68069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="423" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>420</v>
       </c>
@@ -68222,7 +68217,7 @@
       <c r="AN423" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO423" s="17">
+      <c r="AO423" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -68231,7 +68226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="424" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>421</v>
       </c>
@@ -68379,7 +68374,7 @@
       <c r="AN424" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO424" s="17">
+      <c r="AO424" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -68388,7 +68383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="425" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>422</v>
       </c>
@@ -68536,7 +68531,7 @@
       <c r="AN425" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO425" s="17">
+      <c r="AO425" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -68545,7 +68540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="426" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>423</v>
       </c>
@@ -68693,7 +68688,7 @@
       <c r="AN426" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO426" s="17">
+      <c r="AO426" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -68702,7 +68697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="427" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>424</v>
       </c>
@@ -68850,7 +68845,7 @@
       <c r="AN427" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO427" s="17">
+      <c r="AO427" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -68859,7 +68854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="428" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>425</v>
       </c>
@@ -69007,7 +69002,7 @@
       <c r="AN428" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO428" s="17">
+      <c r="AO428" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -69016,7 +69011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="429" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>426</v>
       </c>
@@ -69164,7 +69159,7 @@
       <c r="AN429" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO429" s="17">
+      <c r="AO429" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -69173,7 +69168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="430" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>427</v>
       </c>
@@ -69321,7 +69316,7 @@
       <c r="AN430" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO430" s="17">
+      <c r="AO430" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -69330,7 +69325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="431" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>428</v>
       </c>
@@ -69478,7 +69473,7 @@
       <c r="AN431" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO431" s="17">
+      <c r="AO431" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -69487,7 +69482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="432" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>429</v>
       </c>
@@ -69635,7 +69630,7 @@
       <c r="AN432" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO432" s="17">
+      <c r="AO432" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -69644,7 +69639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="433" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>430</v>
       </c>
@@ -69792,7 +69787,7 @@
       <c r="AN433" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO433" s="17">
+      <c r="AO433" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -69801,7 +69796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="434" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>431</v>
       </c>
@@ -69949,7 +69944,7 @@
       <c r="AN434" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO434" s="17">
+      <c r="AO434" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -69958,7 +69953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="435" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>432</v>
       </c>
@@ -70106,7 +70101,7 @@
       <c r="AN435" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO435" s="17">
+      <c r="AO435" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -70115,7 +70110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="436" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>433</v>
       </c>
@@ -70263,7 +70258,7 @@
       <c r="AN436" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO436" s="17">
+      <c r="AO436" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -70272,7 +70267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="437" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>434</v>
       </c>
@@ -70420,7 +70415,7 @@
       <c r="AN437" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO437" s="17">
+      <c r="AO437" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -70429,7 +70424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="438" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>435</v>
       </c>
@@ -70577,7 +70572,7 @@
       <c r="AN438" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO438" s="17">
+      <c r="AO438" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -70586,7 +70581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="439" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>436</v>
       </c>
@@ -70734,7 +70729,7 @@
       <c r="AN439" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO439" s="17">
+      <c r="AO439" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -70743,7 +70738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="440" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>437</v>
       </c>
@@ -70891,7 +70886,7 @@
       <c r="AN440" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO440" s="17">
+      <c r="AO440" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -70900,7 +70895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="441" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>438</v>
       </c>
@@ -71048,7 +71043,7 @@
       <c r="AN441" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO441" s="17">
+      <c r="AO441" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -71057,7 +71052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="442" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>439</v>
       </c>
@@ -71205,7 +71200,7 @@
       <c r="AN442" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO442" s="17">
+      <c r="AO442" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -71214,7 +71209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="443" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>440</v>
       </c>
@@ -71362,7 +71357,7 @@
       <c r="AN443" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO443" s="17">
+      <c r="AO443" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -71371,7 +71366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="444" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>441</v>
       </c>
@@ -71519,7 +71514,7 @@
       <c r="AN444" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO444" s="17">
+      <c r="AO444" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -71528,7 +71523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="445" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>442</v>
       </c>
@@ -71676,7 +71671,7 @@
       <c r="AN445" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO445" s="17">
+      <c r="AO445" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -71685,7 +71680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="446" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>443</v>
       </c>
@@ -71833,7 +71828,7 @@
       <c r="AN446" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO446" s="17">
+      <c r="AO446" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -71842,7 +71837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="447" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>444</v>
       </c>
@@ -71990,7 +71985,7 @@
       <c r="AN447" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO447" s="17">
+      <c r="AO447" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -71999,7 +71994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="448" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>445</v>
       </c>
@@ -72147,7 +72142,7 @@
       <c r="AN448" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO448" s="17">
+      <c r="AO448" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -72156,7 +72151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="449" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>446</v>
       </c>
@@ -72304,7 +72299,7 @@
       <c r="AN449" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO449" s="17">
+      <c r="AO449" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -72313,7 +72308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="450" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>447</v>
       </c>
@@ -72461,7 +72456,7 @@
       <c r="AN450" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO450" s="17">
+      <c r="AO450" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -72470,7 +72465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="451" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>448</v>
       </c>
@@ -72618,7 +72613,7 @@
       <c r="AN451" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO451" s="17">
+      <c r="AO451" s="10">
         <f t="shared" si="200"/>
         <v>1</v>
       </c>
@@ -72627,7 +72622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="452" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A452">
         <v>449</v>
       </c>
@@ -72775,7 +72770,7 @@
       <c r="AN452" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO452" s="17">
+      <c r="AO452" s="10">
         <f t="shared" ref="AO452:AO466" si="229">_xlfn.BITAND(_xlfn.BITRSHIFT(HEX2DEC(AN452),4),1)</f>
         <v>1</v>
       </c>
@@ -72784,7 +72779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="453" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A453">
         <v>450</v>
       </c>
@@ -72932,7 +72927,7 @@
       <c r="AN453" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO453" s="17">
+      <c r="AO453" s="10">
         <f t="shared" si="229"/>
         <v>1</v>
       </c>
@@ -72941,7 +72936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="454" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A454">
         <v>451</v>
       </c>
@@ -73089,7 +73084,7 @@
       <c r="AN454" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO454" s="17">
+      <c r="AO454" s="10">
         <f t="shared" si="229"/>
         <v>1</v>
       </c>
@@ -73098,7 +73093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="455" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A455">
         <v>452</v>
       </c>
@@ -73246,7 +73241,7 @@
       <c r="AN455" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO455" s="17">
+      <c r="AO455" s="10">
         <f t="shared" si="229"/>
         <v>1</v>
       </c>
@@ -73255,7 +73250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="456" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A456">
         <v>453</v>
       </c>
@@ -73403,7 +73398,7 @@
       <c r="AN456" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO456" s="17">
+      <c r="AO456" s="10">
         <f t="shared" si="229"/>
         <v>1</v>
       </c>
@@ -73412,7 +73407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="457" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A457">
         <v>454</v>
       </c>
@@ -73560,7 +73555,7 @@
       <c r="AN457" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO457" s="17">
+      <c r="AO457" s="10">
         <f t="shared" si="229"/>
         <v>1</v>
       </c>
@@ -73569,7 +73564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="458" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A458">
         <v>455</v>
       </c>
@@ -73717,7 +73712,7 @@
       <c r="AN458" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO458" s="17">
+      <c r="AO458" s="10">
         <f t="shared" si="229"/>
         <v>1</v>
       </c>
@@ -73726,7 +73721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="459" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A459">
         <v>456</v>
       </c>
@@ -73874,7 +73869,7 @@
       <c r="AN459" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO459" s="17">
+      <c r="AO459" s="10">
         <f t="shared" si="229"/>
         <v>1</v>
       </c>
@@ -73883,7 +73878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="460" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A460">
         <v>457</v>
       </c>
@@ -74031,7 +74026,7 @@
       <c r="AN460" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO460" s="17">
+      <c r="AO460" s="10">
         <f t="shared" si="229"/>
         <v>1</v>
       </c>
@@ -74040,7 +74035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="461" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A461">
         <v>458</v>
       </c>
@@ -74188,7 +74183,7 @@
       <c r="AN461" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO461" s="17">
+      <c r="AO461" s="10">
         <f t="shared" si="229"/>
         <v>1</v>
       </c>
@@ -74197,7 +74192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="462" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A462">
         <v>459</v>
       </c>
@@ -74345,7 +74340,7 @@
       <c r="AN462" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO462" s="17">
+      <c r="AO462" s="10">
         <f t="shared" si="229"/>
         <v>1</v>
       </c>
@@ -74354,7 +74349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="463" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>460</v>
       </c>
@@ -74502,7 +74497,7 @@
       <c r="AN463" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO463" s="17">
+      <c r="AO463" s="10">
         <f t="shared" si="229"/>
         <v>1</v>
       </c>
@@ -74511,7 +74506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="464" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A464">
         <v>461</v>
       </c>
@@ -74659,7 +74654,7 @@
       <c r="AN464" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO464" s="17">
+      <c r="AO464" s="10">
         <f t="shared" si="229"/>
         <v>1</v>
       </c>
@@ -74668,7 +74663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="465" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A465">
         <v>462</v>
       </c>
@@ -74816,7 +74811,7 @@
       <c r="AN465" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO465" s="17">
+      <c r="AO465" s="10">
         <f t="shared" si="229"/>
         <v>1</v>
       </c>
@@ -74825,7 +74820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="466" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A466">
         <v>463</v>
       </c>
@@ -74973,7 +74968,7 @@
       <c r="AN466" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AO466" s="17">
+      <c r="AO466" s="10">
         <f t="shared" si="229"/>
         <v>1</v>
       </c>
@@ -74985,6 +74980,11 @@
   </sheetData>
   <autoFilter ref="A2:AP466" xr:uid="{CED46B61-4517-4515-9354-B9B0C7E0A8BB}">
     <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="14">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="18" showButton="0"/>
   </autoFilter>
   <mergeCells count="10">

--- a/File Research/CommonObjDat UW2.xlsx
+++ b/File Research/CommonObjDat UW2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D099F0A-9FFB-43C3-8CA0-B4CDB5764E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32D7295-EC11-483C-9560-DE4399F94179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{7ED1FA11-2114-4775-965F-EC4009C3E5C9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2438" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2438" uniqueCount="450">
   <si>
     <t>C5</t>
   </si>
@@ -1403,6 +1403,9 @@
     <t>Bit 4 
 Uses a detailed LookAt Description that begins with "You See" instead of just printing the object name</t>
   </si>
+  <si>
+    <t>Bit 1 Objects with this bit set will activate when in collision with another object</t>
+  </si>
 </sst>
 </file>
 
@@ -1898,14 +1901,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED46B61-4517-4515-9354-B9B0C7E0A8BB}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AP466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="K211" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="T20" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O217" sqref="O217"/>
+      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1930,7 +1932,7 @@
     <col min="21" max="21" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.46484375" style="10" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21.73046875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.19921875" customWidth="1"/>
     <col min="25" max="25" width="15.265625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="2.86328125" style="10" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11.53125" bestFit="1" customWidth="1"/>
@@ -2075,7 +2077,7 @@
         <v>428</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>424</v>
@@ -5269,7 +5271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>20</v>
       </c>
@@ -5426,7 +5428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>21</v>
       </c>
@@ -5583,7 +5585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>22</v>
       </c>
@@ -5740,7 +5742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>23</v>
       </c>
@@ -6368,7 +6370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>27</v>
       </c>
@@ -6682,7 +6684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>29</v>
       </c>
@@ -6839,7 +6841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>30</v>
       </c>
@@ -12177,7 +12179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>64</v>
       </c>
@@ -12334,7 +12336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>65</v>
       </c>
@@ -12491,7 +12493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>66</v>
       </c>
@@ -12648,7 +12650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>67</v>
       </c>
@@ -12805,7 +12807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>68</v>
       </c>
@@ -12962,7 +12964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>69</v>
       </c>
@@ -13119,7 +13121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>70</v>
       </c>
@@ -13276,7 +13278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>71</v>
       </c>
@@ -13433,7 +13435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>72</v>
       </c>
@@ -13590,7 +13592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>73</v>
       </c>
@@ -13747,7 +13749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>74</v>
       </c>
@@ -13904,7 +13906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>75</v>
       </c>
@@ -14061,7 +14063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>76</v>
       </c>
@@ -14218,7 +14220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>77</v>
       </c>
@@ -14375,7 +14377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>78</v>
       </c>
@@ -14532,7 +14534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>79</v>
       </c>
@@ -14689,7 +14691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>80</v>
       </c>
@@ -14846,7 +14848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>81</v>
       </c>
@@ -15003,7 +15005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>82</v>
       </c>
@@ -15160,7 +15162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>83</v>
       </c>
@@ -15317,7 +15319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>84</v>
       </c>
@@ -15474,7 +15476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>85</v>
       </c>
@@ -15631,7 +15633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>86</v>
       </c>
@@ -15788,7 +15790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>87</v>
       </c>
@@ -15945,7 +15947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>88</v>
       </c>
@@ -16102,7 +16104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>89</v>
       </c>
@@ -16259,7 +16261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>90</v>
       </c>
@@ -16416,7 +16418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>91</v>
       </c>
@@ -16573,7 +16575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>92</v>
       </c>
@@ -16730,7 +16732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>93</v>
       </c>
@@ -16887,7 +16889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>94</v>
       </c>
@@ -17044,7 +17046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>95</v>
       </c>
@@ -17201,7 +17203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>96</v>
       </c>
@@ -17358,7 +17360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>97</v>
       </c>
@@ -17515,7 +17517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>98</v>
       </c>
@@ -17672,7 +17674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>99</v>
       </c>
@@ -17829,7 +17831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>100</v>
       </c>
@@ -17986,7 +17988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>101</v>
       </c>
@@ -18143,7 +18145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>102</v>
       </c>
@@ -18300,7 +18302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>103</v>
       </c>
@@ -18457,7 +18459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>104</v>
       </c>
@@ -18614,7 +18616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>105</v>
       </c>
@@ -18771,7 +18773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>106</v>
       </c>
@@ -18928,7 +18930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>107</v>
       </c>
@@ -19085,7 +19087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>108</v>
       </c>
@@ -19242,7 +19244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>109</v>
       </c>
@@ -19399,7 +19401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>110</v>
       </c>
@@ -19556,7 +19558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>111</v>
       </c>
@@ -19713,7 +19715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>112</v>
       </c>
@@ -19870,7 +19872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>113</v>
       </c>
@@ -20027,7 +20029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>114</v>
       </c>
@@ -20184,7 +20186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>115</v>
       </c>
@@ -20341,7 +20343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>116</v>
       </c>
@@ -20498,7 +20500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>117</v>
       </c>
@@ -20655,7 +20657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>118</v>
       </c>
@@ -20812,7 +20814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>119</v>
       </c>
@@ -20969,7 +20971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>120</v>
       </c>
@@ -21126,7 +21128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>121</v>
       </c>
@@ -21283,7 +21285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>122</v>
       </c>
@@ -21440,7 +21442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>123</v>
       </c>
@@ -21597,7 +21599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>124</v>
       </c>
@@ -21754,7 +21756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>125</v>
       </c>
@@ -21911,7 +21913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>126</v>
       </c>
@@ -22068,7 +22070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>127</v>
       </c>
@@ -32273,7 +32275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>192</v>
       </c>
@@ -32430,7 +32432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>193</v>
       </c>
@@ -34785,7 +34787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>208</v>
       </c>
@@ -34942,7 +34944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>209</v>
       </c>
@@ -35256,7 +35258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>211</v>
       </c>
@@ -35413,7 +35415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>212</v>
       </c>
@@ -35570,7 +35572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>213</v>
       </c>
@@ -35884,7 +35886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>215</v>
       </c>
@@ -36198,7 +36200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>217</v>
       </c>
@@ -36355,7 +36357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>218</v>
       </c>
@@ -36512,7 +36514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>219</v>
       </c>
@@ -36669,7 +36671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>220</v>
       </c>
@@ -36826,7 +36828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>221</v>
       </c>
@@ -36983,7 +36985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>222</v>
       </c>
@@ -37140,7 +37142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>223</v>
       </c>
@@ -37297,7 +37299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>224</v>
       </c>
@@ -44676,7 +44678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>271</v>
       </c>
@@ -52369,7 +52371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>320</v>
       </c>
@@ -52526,7 +52528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>321</v>
       </c>
@@ -52683,7 +52685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>322</v>
       </c>
@@ -52840,7 +52842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>323</v>
       </c>
@@ -52997,7 +52999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>324</v>
       </c>
@@ -53154,7 +53156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>325</v>
       </c>
@@ -53311,7 +53313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>326</v>
       </c>
@@ -53468,7 +53470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>327</v>
       </c>
@@ -53625,7 +53627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>328</v>
       </c>
@@ -53782,7 +53784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>329</v>
       </c>
@@ -53939,7 +53941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>330</v>
       </c>
@@ -54096,7 +54098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>331</v>
       </c>
@@ -54253,7 +54255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>332</v>
       </c>
@@ -54410,7 +54412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>333</v>
       </c>
@@ -54567,7 +54569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>334</v>
       </c>
@@ -54724,7 +54726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>335</v>
       </c>
@@ -54881,7 +54883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>336</v>
       </c>
@@ -55038,7 +55040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>337</v>
       </c>
@@ -55195,7 +55197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>338</v>
       </c>
@@ -55352,7 +55354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>339</v>
       </c>
@@ -55509,7 +55511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>340</v>
       </c>
@@ -55980,7 +55982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>343</v>
       </c>
@@ -56137,7 +56139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>344</v>
       </c>
@@ -56294,7 +56296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>345</v>
       </c>
@@ -56451,7 +56453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>346</v>
       </c>
@@ -56608,7 +56610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>347</v>
       </c>
@@ -56765,7 +56767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>348</v>
       </c>
@@ -56922,7 +56924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>349</v>
       </c>
@@ -57079,7 +57081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>350</v>
       </c>
@@ -57393,7 +57395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>352</v>
       </c>
@@ -57550,7 +57552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>353</v>
       </c>
@@ -57707,7 +57709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>354</v>
       </c>
@@ -57864,7 +57866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>355</v>
       </c>
@@ -58021,7 +58023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="359" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>356</v>
       </c>
@@ -58178,7 +58180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>357</v>
       </c>
@@ -58335,7 +58337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>358</v>
       </c>
@@ -58492,7 +58494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>359</v>
       </c>
@@ -58649,7 +58651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>360</v>
       </c>
@@ -58806,7 +58808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>361</v>
       </c>
@@ -58963,7 +58965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>362</v>
       </c>
@@ -59120,7 +59122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>363</v>
       </c>
@@ -59277,7 +59279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="367" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>364</v>
       </c>
@@ -59434,7 +59436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>365</v>
       </c>
@@ -59591,7 +59593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>366</v>
       </c>
@@ -59748,7 +59750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="370" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>367</v>
       </c>
@@ -59905,7 +59907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>368</v>
       </c>
@@ -60062,7 +60064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="372" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>369</v>
       </c>
@@ -60219,7 +60221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>370</v>
       </c>
@@ -60376,7 +60378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>371</v>
       </c>
@@ -60533,7 +60535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>372</v>
       </c>
@@ -60690,7 +60692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>373</v>
       </c>
@@ -60847,7 +60849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>374</v>
       </c>
@@ -61004,7 +61006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>375</v>
       </c>
@@ -61161,7 +61163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>376</v>
       </c>
@@ -61318,7 +61320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>377</v>
       </c>
@@ -61475,7 +61477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>378</v>
       </c>
@@ -61632,7 +61634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>379</v>
       </c>
@@ -61789,7 +61791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="383" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>380</v>
       </c>
@@ -61946,7 +61948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>381</v>
       </c>
@@ -62103,7 +62105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="385" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>382</v>
       </c>
@@ -62260,7 +62262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="386" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>383</v>
       </c>
@@ -62417,7 +62419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="387" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>384</v>
       </c>
@@ -62574,7 +62576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="388" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>385</v>
       </c>
@@ -62731,7 +62733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="389" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>386</v>
       </c>
@@ -62888,7 +62890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="390" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>387</v>
       </c>
@@ -63045,7 +63047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>388</v>
       </c>
@@ -63202,7 +63204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>389</v>
       </c>
@@ -63359,7 +63361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="393" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>390</v>
       </c>
@@ -63516,7 +63518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="394" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>391</v>
       </c>
@@ -63673,7 +63675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>392</v>
       </c>
@@ -63830,7 +63832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>393</v>
       </c>
@@ -63987,7 +63989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>394</v>
       </c>
@@ -64144,7 +64146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="398" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>395</v>
       </c>
@@ -64301,7 +64303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="399" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>396</v>
       </c>
@@ -64458,7 +64460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="400" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>397</v>
       </c>
@@ -64615,7 +64617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="401" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>398</v>
       </c>
@@ -64772,7 +64774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>399</v>
       </c>
@@ -64929,7 +64931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="403" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>400</v>
       </c>
@@ -65086,7 +65088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="404" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>401</v>
       </c>
@@ -65243,7 +65245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="405" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>402</v>
       </c>
@@ -65400,7 +65402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="406" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>403</v>
       </c>
@@ -65557,7 +65559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="407" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>404</v>
       </c>
@@ -65714,7 +65716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="408" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>405</v>
       </c>
@@ -65871,7 +65873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="409" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>406</v>
       </c>
@@ -66028,7 +66030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="410" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>407</v>
       </c>
@@ -66185,7 +66187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="411" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>408</v>
       </c>
@@ -66342,7 +66344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="412" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>409</v>
       </c>
@@ -66499,7 +66501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>410</v>
       </c>
@@ -66656,7 +66658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>411</v>
       </c>
@@ -66813,7 +66815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>412</v>
       </c>
@@ -66970,7 +66972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>413</v>
       </c>
@@ -67127,7 +67129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>414</v>
       </c>
@@ -67284,7 +67286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="418" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>415</v>
       </c>
@@ -67441,7 +67443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="419" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>416</v>
       </c>
@@ -67598,7 +67600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="420" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>417</v>
       </c>
@@ -67755,7 +67757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="421" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>418</v>
       </c>
@@ -67912,7 +67914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="422" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>419</v>
       </c>
@@ -68069,7 +68071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="423" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>420</v>
       </c>
@@ -68226,7 +68228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="424" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>421</v>
       </c>
@@ -68383,7 +68385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="425" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>422</v>
       </c>
@@ -68540,7 +68542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="426" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>423</v>
       </c>
@@ -68697,7 +68699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="427" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>424</v>
       </c>
@@ -68854,7 +68856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="428" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>425</v>
       </c>
@@ -69011,7 +69013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="429" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>426</v>
       </c>
@@ -69168,7 +69170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="430" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>427</v>
       </c>
@@ -69325,7 +69327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="431" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>428</v>
       </c>
@@ -69482,7 +69484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="432" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>429</v>
       </c>
@@ -69639,7 +69641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="433" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>430</v>
       </c>
@@ -69796,7 +69798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="434" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>431</v>
       </c>
@@ -69953,7 +69955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="435" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>432</v>
       </c>
@@ -70110,7 +70112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="436" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>433</v>
       </c>
@@ -70267,7 +70269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="437" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>434</v>
       </c>
@@ -70424,7 +70426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="438" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>435</v>
       </c>
@@ -70581,7 +70583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="439" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>436</v>
       </c>
@@ -70738,7 +70740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="440" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>437</v>
       </c>
@@ -70895,7 +70897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="441" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>438</v>
       </c>
@@ -71052,7 +71054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="442" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>439</v>
       </c>
@@ -71209,7 +71211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="443" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>440</v>
       </c>
@@ -71366,7 +71368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="444" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>441</v>
       </c>
@@ -71523,7 +71525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="445" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>442</v>
       </c>
@@ -71680,7 +71682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="446" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>443</v>
       </c>
@@ -71837,7 +71839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="447" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>444</v>
       </c>
@@ -71994,7 +71996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="448" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>445</v>
       </c>
@@ -72151,7 +72153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="449" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>446</v>
       </c>
@@ -72308,7 +72310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="450" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>447</v>
       </c>
@@ -72465,7 +72467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="451" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>448</v>
       </c>
@@ -72622,7 +72624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="452" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A452">
         <v>449</v>
       </c>
@@ -72779,7 +72781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="453" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A453">
         <v>450</v>
       </c>
@@ -72936,7 +72938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="454" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A454">
         <v>451</v>
       </c>
@@ -73093,7 +73095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="455" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A455">
         <v>452</v>
       </c>
@@ -73250,7 +73252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="456" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A456">
         <v>453</v>
       </c>
@@ -73407,7 +73409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="457" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A457">
         <v>454</v>
       </c>
@@ -73564,7 +73566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="458" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A458">
         <v>455</v>
       </c>
@@ -73721,7 +73723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="459" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A459">
         <v>456</v>
       </c>
@@ -73878,7 +73880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="460" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A460">
         <v>457</v>
       </c>
@@ -74035,7 +74037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="461" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A461">
         <v>458</v>
       </c>
@@ -74192,7 +74194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="462" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A462">
         <v>459</v>
       </c>
@@ -74349,7 +74351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="463" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>460</v>
       </c>
@@ -74506,7 +74508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="464" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A464">
         <v>461</v>
       </c>
@@ -74663,7 +74665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="465" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A465">
         <v>462</v>
       </c>
@@ -74820,7 +74822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="466" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A466">
         <v>463</v>
       </c>
@@ -74980,11 +74982,6 @@
   </sheetData>
   <autoFilter ref="A2:AP466" xr:uid="{CED46B61-4517-4515-9354-B9B0C7E0A8BB}">
     <filterColumn colId="6" showButton="0"/>
-    <filterColumn colId="14">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="18" showButton="0"/>
   </autoFilter>
   <mergeCells count="10">

--- a/File Research/CommonObjDat UW2.xlsx
+++ b/File Research/CommonObjDat UW2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77D5835-D475-4F6D-97B9-CC2855950FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCB6496-1332-4EA9-9256-A34ECCCB2DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="270" windowWidth="20505" windowHeight="12690" xr2:uid="{7ED1FA11-2114-4775-965F-EC4009C3E5C9}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="20640" windowHeight="13080" xr2:uid="{7ED1FA11-2114-4775-965F-EC4009C3E5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1384,10 +1384,6 @@
 Something to do with Raycasting</t>
   </si>
   <si>
-    <t>bits 1-4  (checked when object hits the ground, only set when object is a damaging projectile type so this is probability the missile is removed from the world on impact when Rng (0-7) is less thanthe value. Any value &gt;=8 means the projectile is destroyed on impact, 0 means object is not removed on impact.
-If the mobile object has bits 4,5,6 at offset 0xA set to 1 the projectile will be removed regardless of the below value and a splash spawned</t>
-  </si>
-  <si>
     <t>Bit 6/7 IsStackable or IsLinkable
 When 0 or 2 the object can be stacked into a quantity
 1 and 3 means the object can have a link</t>
@@ -1412,6 +1408,11 @@
   </si>
   <si>
     <t>bit 5,6,7,8</t>
+  </si>
+  <si>
+    <t>bits 1-4  culling priority for projectiles
+(checked when object hits the ground, only set when object is a damaging projectile type so this is probability the missile is removed from the world on impact when Rng (0-7) is less thanthe value. Any value of 9 means the projectile is destroyed on impact and cause damage in the tile, 0 means object is not removed on impact.
+If the mobile object has bits 4,5,6 at offset 0xA set to 1 the projectile will be removed regardless of the below value and a splash spawned</t>
   </si>
 </sst>
 </file>
@@ -1908,13 +1909,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED46B61-4517-4515-9354-B9B0C7E0A8BB}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AR466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z2" sqref="Z2"/>
+      <selection pane="bottomRight" activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2024,7 +2026,7 @@
       <c r="AQ1" s="13"/>
       <c r="AR1" s="13"/>
     </row>
-    <row r="2" spans="1:44" s="3" customFormat="1" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:44" s="3" customFormat="1" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>389</v>
       </c>
@@ -2060,13 +2062,13 @@
         <v>383</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>429</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>428</v>
@@ -2085,16 +2087,16 @@
         <v>385</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>427</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AA2" s="6" t="s">
         <v>423</v>
@@ -2107,7 +2109,7 @@
         <v>443</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="AF2" s="9" t="s">
         <v>386</v>
@@ -2143,10 +2145,10 @@
         <v>388</v>
       </c>
       <c r="AQ2" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AR2" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.45">
@@ -4788,7 +4790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:44" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>16</v>
       </c>
@@ -4953,7 +4955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:44" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>17</v>
       </c>
@@ -5118,7 +5120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:44" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>18</v>
       </c>
@@ -5283,7 +5285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:44" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>19</v>
       </c>
@@ -5448,7 +5450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:44" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>20</v>
       </c>
@@ -5613,7 +5615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:44" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>21</v>
       </c>
@@ -5778,7 +5780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:44" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>22</v>
       </c>
@@ -5943,7 +5945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:44" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>23</v>
       </c>
@@ -6603,7 +6605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:44" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>27</v>
       </c>
@@ -6768,7 +6770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:44" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>28</v>
       </c>
@@ -6933,7 +6935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:44" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>29</v>
       </c>
@@ -7098,7 +7100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:44" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>30</v>
       </c>
@@ -57753,7 +57755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:44" hidden="1" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>337</v>
       </c>
@@ -57918,7 +57920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:44" hidden="1" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>338</v>
       </c>
@@ -78712,6 +78714,11 @@
   <autoFilter ref="A2:AR466" xr:uid="{CED46B61-4517-4515-9354-B9B0C7E0A8BB}">
     <filterColumn colId="6" showButton="0"/>
     <filterColumn colId="18" showButton="0"/>
+    <filterColumn colId="30">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <mergeCells count="10">
     <mergeCell ref="AB1:AE1"/>
